--- a/company_leads.xlsx
+++ b/company_leads.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/company_leads.xlsx
+++ b/company_leads.xlsx
@@ -476,22 +476,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Konverge AI Private Limited</t>
+          <t>PSK Technologies Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://konverge.ai/</t>
+          <t>https://www.pskitservices.com/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+91 92841 45248</t>
+          <t>+91 99752 88300</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42CX+42M, First Floor, Techfinity Tower, IT Park Rd, Parsodi, Gayatri Nagar, Nagpur, Maharashtra 440022, India</t>
+          <t>lower ground floor, Fortune Mall, Buty Rd, near Maharashtra bank, near metro station, Sitabuldi, Nagpur, Maharashtra 440012, India</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,70 +501,74 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Konverge AI empowers businesses with AI-driven solutions for hyper-growth, leveraging Agentic AI and Generative AI capabilities that foster intelligent and enable autonomous decision-making.</t>
+          <t>Leading IT company in Nagpur offering website development, digital marketing, internships, and IT training at PSK Technologies Pvt. Ltd</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>info@konverge.ai</t>
+          <t>hr@pskitservices.com</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Prateek Chandrayan|https://www.linkedin.com/in/prateekchandrayan</t>
+          <t>Prashant Kadhao|https://in.linkedin.com/in/prashant-kadhao-544600a9</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/konverge-ai</t>
+          <t>https://in.linkedin.com/company/psk-technologies-pvt-ltd-it-company</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/prateekchandrayan</t>
+          <t>https://in.linkedin.com/in/prashant-kadhao-544600a9</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Immverse Innovations Private Limited</t>
+          <t>Persistent Systems Limited</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.immverse.ai/</t>
+          <t>http://www.persistent.com/</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+91 74985 21750</t>
+          <t>+91 712 669 2000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Shraddhanand Peth Square, Shubhashish Square, 4th Floor, B-Wing, S Ambazari Rd, Abhyankar Nagar, Nagpur, Maharashtra 440010, India</t>
+          <t>Gargi-Maitreyi Plot No. 8 and 9, IT Park, MIDC, Parsodi, Pratap Nagar, Nagpur, Maharashtra 440022, India</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Explore Immverse AI, pioneering the creation of immortalized avatars and immersive experiences. Join us in shaping the future of digital identity and interaction.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>Re(AI)magining the World with Persistent Systems: Transform your AI journey with a trusted partner in digital engineering and enterprise modernization services.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>card-01-img-01@2x.png</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Raman Ramakrishnan|https://in.linkedin.com/in/rama-immverse</t>
+          <t>Sandeep Kalra|https://www.linkedin.com/in/sandeep-kalra-a181662</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/company/immverse-ai</t>
+          <t>https://www.linkedin.com/company/persistent-systems</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -572,570 +576,30 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Acube AI - Analytics | Automation | Artificial Intelligence</t>
+          <t>ArenaITech Pvt. Ltd. - Software Company in Nagpur</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://acubeai.com/</t>
+          <t>http://www.arenaitech.com/</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+91 98604 44150</t>
+          <t>+91 92262 23456</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>102, Balwant Apartment, Chatrapati Square, Maharashtra 440015, India</t>
+          <t>302, Medical Store, Umashankar Apartment, beside Dharampeth, Gokulpeth, Nagpur, Maharashtra 440010, India</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>Home – Acube AI - Acube AI</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>info@acubeai.com</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Dushyant Sukhija|https://www.linkedin.com/in/dushyant-sukhija</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://in.linkedin.com/company/acube-ai</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>https://in.linkedin.com/in/abhishek-p-b91395ba</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Betasys AI Private Limited</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://betasys.ai/</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>+91 80804 04566</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Plot no. 9, Chidanand Heights, Panchatara Grahnirman Housing society, opp Rakshak Mart, Manish Nagar, Nagpur, Maharashtra 440025, Nagpur, Maharashtra 400025, India</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Betasys delivers enterprise AI solutions, data engineering, and machine learning systems built for real business operations, scalability, and long-term reliability.</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Sarang Pathak|https://in.linkedin.com/in/sarang-pathak-6a2a4026</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>https://in.linkedin.com/company/betasys-ai</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>https://in.linkedin.com/in/sarang-pathak-6a2a4026</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>IAMFIRST Digition Solutions Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>http://iamfirst.in/</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>+91 77578 54042</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Besides Port O Gomez Restaurent, 11, N Ambazari Rd, Daga Layout, Gandhi Nagar, Nagpur, Maharashtra 440033, India</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>IAMFIRST</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Pawan Parihar|https://in.linkedin.com/in/pawan-parihar-2633b1118</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>https://in.linkedin.com/company/iamfirst</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>https://in.linkedin.com/in/pawan-parihar-2633b1118</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Ambe AI Technologies Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://ambetechnologies.com/</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>+91 73879 90061</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Metro Pillar P150, Near, Metro station, Infront of, Subhash Nagar, Nagpur, Maharashtra 440036, India</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Ambe AI</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>harish@ambetechnologies.com</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Harish Chopkar|https://in.linkedin.com/in/harish-chopkar</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>https://in.linkedin.com/company/ambe-technologies-india</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>https://in.linkedin.com/in/harish-chopkar</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>TinkersIO Solutions | AI | Web | Mobile App Development</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://tinkers.io/</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>+91 712 295 6444</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>676, Lane, nr. Sham Dham Mandir, opp. to Awari School, New Nandanvan Colony, Nandanvan, Nagpur, Maharashtra 440024, India</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Sagar Guhe|https://in.linkedin.com/in/sagarguhe</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>https://in.linkedin.com/company/tinkersio</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>https://in.linkedin.com/in/sagarguhe</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ProCohat Technologies Pvt. Ltd.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>https://procohat.com/</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>+91 712 357 4272</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>46, 46, Khamla Rd, near Arjuna Celebrations, Vyankatesh Nagar, Khamla, Nagpur, Maharashtra 440025, India</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>ProCohat delivers AI-driven automation solutions tailored to streamline business operations and increase efficiency.</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Wasudev Mishra|https://in.linkedin.com/in/wasudev-mishra-618143a4</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>https://in.linkedin.com/company/procohat</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>https://in.linkedin.com/in/pranav-armarkar-459677224?trk=people-guest_people_search-card</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>GOMI INFO - Best Digital Marketing, Webside Designing, Ai Solution Provider in Nagpur</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://gomiinfo.com/</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>+91 93565 26263</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Mangaldip Colony, Plot 21, Manewada - Besa Rd, opp. ABC Convent, behind Food Court, Omkar Nagar, Nagpur, Maharashtra 440027, India</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>UniqueMark offers comprehensive services in SEO, web development, lead generation, and social media marketing for businesses in Kharadi, Hinjewadi, Hadapsar, and Koregaon Park. Elevate your online presence and drive growth with our expert solutions tailored to your local market needs.</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>info@uniquemarks.com</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/gomi-ventures</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>https://in.linkedin.com/in/gomathireddy</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>CyberAthon TECHNOLOGY (OPC) PRIVATE LIMITED</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>https://cyberathon.com/</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>+91 77960 90408</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1st Floor, Cyberathon, Shiv Datta Apartment, Plot No. 4, Mankapur Ring Rd, opposite petrol pump, Parsodi, Subhash Nagar, Trimurti Nagar, Nagpur, Maharashtra 440022, India</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Cyberathon is the best IT/software solutions and digital marketing company in Nagpur, specializes in application and website development.</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>info@cyberathon.com</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Not Available</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>https://in.linkedin.com/company/cyberathon-nagpur-it-services-and-it-consulting-company</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Appzmine Tech Pvt Ltd.</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>http://www.appzminetech.com/</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>+91 712 664 2599</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>203, 2nd floor Utkarsh Nirman, Building In Front of NMC complex, Mangalwari Bazar Rd, Sadar, Nagpur, Maharashtra 440001, India</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Combining India's world-class development expertise with UAE's business excellence. Our teams in Nagpur and Dubai deliver cutting-edge full-stack development, AI solutions, and blockchain technology to businesses across India, UAE, and globally.</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>info@appzminetech.com</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Mazhar Imam|https://in.linkedin.com/in/mazhar-imam-22b102a4</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>https://in.linkedin.com/company/appzminetech</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>https://in.linkedin.com/in/samyak-sakhare</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AnkHub Technology Services</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>https://ankhub.in/</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>+91 90210 70048</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3rd Floor, Telephone Exchange Square, Plot No. 170, behind Doctor Dalvi Hospital Complex, Garoba Maidan, Bagadganj, Nagpur, Maharashtra 440008, India</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>We Design Digital platforms and brands with Future Trends We Design Digital platforms and brands with Future Trends That Engage today's Consumers, That Fulfils today's Demands, That Ensure client Satisfaction Explore more That Engage today's Consumers, That Fulfills today's Demands, That Ensure client Satisfaction Explore more Welcome to Ankhub Technology Services Business Secrets for your</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>info@ankhub.in</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Ankit Kshirsagar|https://in.linkedin.com/in/ankit-kshirsagar-530278137</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>https://in.linkedin.com/company/ankhub-technology-services</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Kizora Software Private Limited</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>https://www.kizora.com/</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>+91 80804 66754</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Plot No. 12 First Floor, Hill Top, Ambazari, Nagpur, Maharashtra 440033, India</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>We provide customized software development, E-Commerce website development, mobile app development and AIML development services all over India and overseas. Call 8080466754.</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>info@kizora.com</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Abhijeet Thakare|https://in.linkedin.com/in/abhijeetthakare</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>https://in.linkedin.com/company/kizora-software-private-limited</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ArenaITech Pvt. Ltd. - Software Company in Nagpur</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>http://www.arenaitech.com/</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>+91 92262 23456</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>302, Medical Store, Umashankar Apartment, beside Dharampeth, Gokulpeth, Nagpur, Maharashtra 440010, India</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
         <is>
           <t xml:space="preserve">ArenaITech is an Established IT
 Company in India, Which Offer Plethora of Technology
@@ -1143,150 +607,645 @@
 Digital Marketing Services. </t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>admin@arenaitech.com</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sonali Wadgure|https://in.linkedin.com/in/sonali-wadgure-10395b141</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/company/arenaitech-pvt-ltd</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/in/saurabh-kashyap-976084114</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ocean Software Technologies</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>http://www.oceansofttech.net/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>+91 94236 85852</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SH. No. A-002, Plot No. 14, Shrikrishna Nagar, Shivaji Park, Nagpur, Maharashtra 440009, India</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ocean software technologies,I-Bank 4.0,Best Core Banking System,Credit Cooperative Society software,online Credit Cooperative Society CBS software,Multi-State Society Software,Nidhi Company software,banking Software,cooperative society software free download,Credit Cooperative Society software in nagpur,it company nagpur,cbs,web,bfsi companies,VPS,Dedicated,Server,free Credit Society Accounting Loans and Deposits Software,core banking system for microfinance</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Yogesh Kedar|https://in.linkedin.com/in/yogesh-kedar-65210734</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/company/ocean-software-technologies</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/in/yogesh-kedar-65210734</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Santosh Selokar Information Technology Pvt.Ltd Nagpur (SSIT.Pvt.Ltd)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.ssinfotech.org/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>+91 96579 59184</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FCI Housing Society, Plot no 9, Narendra Nagar Extension, New Narendra Nagar, Manish Nagar, Somalwada, Nagpur, Maharashtra 440015, India</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>SSIT</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>santosh selokar|https://in.linkedin.com/in/santosh-selokar-4a62b831</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/in/santosh-selokar-b7655618</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GrowNixt Technologies Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>IT Park Nagpur IT Park road Gayatri appartment 202, Nagpur, Maharashtra 440022, India</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>rewan gadkari|https://in.linkedin.com/in/rewan-gadkari-883804225</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/company/grownixt-technologies</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/in/rewan-gadkari-883804225</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>S R solutions</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://digitronsoftwares.com/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>+91 77092 66577</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2nd FLOOR, 10A, c/o, Main Rd, above SAI ENTERPRIESE, beside CANARA ATM, New Diamond Nagar, Shaktimata Nagar, Nandanvan, Nagpur, Maharashtra 440024, India</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>this is multilingual example meta tag for english</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>digitronsoftwares@gmail.com</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tessy Anifowoshe sr|https://www.linkedin.com/in/tessy-anifowoshe-sr-9a135a184</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/company/sr-solutions-realesateservices</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pixel Values Technolabs | Software Company</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.pixelvalues.com/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>+91 84848 36319</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Swapna Apartment, 35, beside Mantri Sadan, Shivaji Nagar, Nagpur, Maharashtra 440010, India</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pixel Values is a Best Mobile App Development Company and among the Top Web Development Companies offering custom Android, iOS, and scalable web solutions.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>info@pixelvalues.com</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Tauseef Anwar|https://in.linkedin.com/in/tauseefanwar</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/pixel-values-techno-labs</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/in/tauseefanwar</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Xceller IT Services</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>http://www.xceller.com/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>+91 93267 44884</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13/1, Diglin Industries, IT Park Rd, Parsodi, Nagpur, Maharashtra 440022, India</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Discover tailored IT services &amp; solutions at Xceller. From consulting to development, we empower your business with reliable tech expertise and innovation.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Anshu S|https://in.linkedin.com/in/anshu-s-74bb41217</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://au.linkedin.com/company/xcellerate-it</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/in/mohit-lanjewar-9199a5294</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Callisto IT Solutions - Best Software Development , Web Application Development and Training &amp; IT InternshipCompany</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>http://www.callistoitsolutions.com/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>+91 70572 05423</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4 - Shivshakti App, Bhagwan Nagar Rd, Banarjee Layout, Rameshwari, Nagpur, Maharashtra 440027, India</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/company/callisto-it-solutions</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Nass Technologies - Software Development &amp; IT Training</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>http://www.nasstechnologies.com/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>+91 82372 66913</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1st Floor, 13, Plot No 5, Borgaon Rd, beside HDFC Bank, near Jafar Nagar, Sugat Colony, Jafar Nagar, Police Line Takli, Nagpur, Maharashtra 440013, India</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nass Technologies has the most advanced digital solutions for your organisation. Web development and mobile apps are the first steps in digital transformation.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>info@nasstechnologies.com</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Valivullah Michael|https://www.linkedin.com/in/valivullah-michael-1b337471</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/company/nass-technologies</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TALLYTACT LLP</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.tallytact.com/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>+91 93266 47411</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Plot no.80, opp. Nirman Enclave, Gajanan Nagar, Nagpur, Maharashtra 440015, India</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TALLYTACT LLP is helping Accountant &amp; CAs solving all TallyPrime Release 7.0 related all problems.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>sales@tallytact.com</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/company/tallytact-llp</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/in/mayur-tajnekar</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pegasus Technologies &amp; Software Private Limited Best Data Science analytics institute In Nagpur</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>http://pegasusacademy.in/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>+91 98235 20987</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Plot No. 43, Mire Layout, Kabir Nagar, Nandanvan, Nagpur, Maharashtra 440009, India</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pegasus Academy – Training | Certification | Placement</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Not Available</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/company/pegasus-technologies-software-pvt-ltd</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/in/komal-tembhare-21b700236</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Radical Global</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>http://www.radicalglobal.net/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>+91 90212 51392</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1, Besides Deendayal Uppadhaya Garden, 94, Jawahar Nagar, Raghuji Nagar, Nagpur, Maharashtra 440024, India</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Radical Global – Digital Workplace Services</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sonali Wadgure|https://in.linkedin.com/in/sonali-wadgure-10395b141</t>
+          <t>Vibhor Khatwar|https://in.linkedin.com/in/vibhor-khatwar-6870485b</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/company/arenaitech-pvt-ltd</t>
+          <t>https://in.linkedin.com/company/radicalglobalcompany</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/raj-sharma-813493170</t>
+          <t>https://in.linkedin.com/in/radical-global-b6513691</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Alacrity E-Commerce Solutions Pvt. Ltd., Nagpur</t>
+          <t>MATRIX INFOTECH - Billing Accounting Inventory Software in Nagpur Reckon ERP</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.alacritysolutions.in/</t>
+          <t>https://matrixsoftware.in/</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>+91 712 222 2353</t>
+          <t>+91 95952 76596</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Infotech Tower, Information Technology Park, M.I.D.C 104, S Ambazari Rd, Parsodi, Gayatri Nagar, Pratap Nagar, Nagpur, Maharashtra 440022, India</t>
+          <t>930, Central Ave, behind Kalra Petrol Pump, Chhota Loharpura, Gandhibagh, Nagpur, Maharashtra 440018, India</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.1</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Alacrity Ecommerce Solutions Pvt. Ltd. – Ecommerce Specialist</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>info@alacritysolutions.in</t>
-        </is>
-      </c>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Mehul Parekh|https://www.linkedin.com/in/parekhmehul</t>
+          <t>Not Available</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/company/alacrity-e-commerce-solutions-private-limited</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>https://in.linkedin.com/in/alacrity-e-commerce-solutions-pvt-ltd-66ab7a288</t>
-        </is>
-      </c>
+          <t>https://in.linkedin.com/company/reckon-software-pvt-ltd</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Appsthentic Technology LLP</t>
+          <t>Contiguvenzaa Private Limited</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.appsthentic.com/</t>
+          <t>https://www.contiguvenzaa.com/</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>+91 92717 77303</t>
+          <t>+91 84465 03094</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Z Software Building, 95, IT Park Rd, Bandu Soni Layout, Parsodi, Gayatri Nagar, Trimurti Nagar, Nagpur, Maharashtra 440022, India</t>
+          <t>72, Ekakshara, 1st floor, near jerryl lawn, Surendra Nagar, Vivekanand Nagar, Nagpur, Maharashtra 440015, India</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Appsthentic Inc – Valid Solutions for Everyone</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Layer-1@2x.png</t>
-        </is>
-      </c>
+          <t>Not Acceptable!</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Dhiraj Ninave 🧑‍💻|https://in.linkedin.com/in/dhirajninave</t>
+          <t>Swapnil Zoad|https://in.linkedin.com/in/swapnil-zoad</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/company/appsthentic-inc-</t>
+          <t>https://in.linkedin.com/company/contiguvenzaa</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/appsthentic-technology-204943396</t>
+          <t>https://in.linkedin.com/in/prayer-arje-843141237</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nedient Technology Pvt. Ltd</t>
+          <t>ASW TECHNOLOGIES PVT. LTD.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://nedient.co.in/</t>
+          <t>https://www.aswtech.in/</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>+91 95295 49207</t>
+          <t>+91 93706 71697</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4, Shivshakti Apartment, Bhagwan Nagar Rd, beside Landmark -Ram dairy and laziz food biryani, Banarjee Layout, NALANDA NAGAR, Rameshwari, Nagpur, Maharashtra 440027, India</t>
+          <t>FLAT NO. 105, WING NO 01, RAJAT SANKUL, Ganeshpeth Colony, Nagpur, Maharashtra 440018, India</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1294,159 +1253,179 @@
           <t>4.7</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>hr@nedient.co.in</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>aswtech.in | 520: Web server is returning an unknown error</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Not Available</t>
+          <t>Sneha Kolte|https://in.linkedin.com/in/sneha-kolte-66a6bb254</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/company/nedient-technology</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>https://in.linkedin.com/company/asw-technologies-pvt-ltd</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/in/abhay-wagadre-544017a9</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Anishree Technologies</t>
+          <t>Nice Software Solutions Pvt Ltd</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.anishreetech.com/</t>
+          <t>http://www.nicesoftwaresolutions.com/</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>+91 96579 59184</t>
+          <t>+91 80078 61579</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>F.C.I. Housing Society, Plot No 9 &amp; 120, Railway Crossing Rd, Narendra Nagar Extension, New Narendra Nagar, Madhuban Layout, Somalwada, Nagpur, Maharashtra 440015, India</t>
+          <t>Plot No. 21, IT Park Rd, Gayatri Nagar, Pratap Nagar, Nagpur, Maharashtra 440022, India</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Get expert Data Analytics Services from a Top AI Consulting Company. As one of the Best AI Consulting Firms, we drive smarter decisions and business growth. Call us.</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>admin@anishreetech.com</t>
+          <t>info@nicesoftwaresolutions.com</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Rashmi Thakre|https://in.linkedin.com/in/rashmithakre</t>
+          <t>ADITYA SARAF|https://in.linkedin.com/in/aditya-saraf-0b36347</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/company/anishree-technologies</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>https://in.linkedin.com/in/rashmi-mohbiya</t>
-        </is>
-      </c>
+          <t>https://in.linkedin.com/company/nice-software-solutions</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Infosai Software</t>
+          <t>Infinity Technology - Hospital Software, Clinic EMR &amp; IVF Software</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://erpinfosaisoftware.com/</t>
+          <t>http://www.infinitytechnology.in/</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>+91 80 4764 0481</t>
+          <t>+91 88064 45533</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3rd Floor, Plot No 5, IT Park Rd, Lokseva Nagar, Pratap Nagar, Nagpur, Maharashtra 440022, India</t>
+          <t>Vaishnav's Inn, Information Technology Park, 401, Sambhaji Nagar, Bhamti, Subhash Nagar, Sq, Nagpur, Maharashtra 440022, India</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Infinity Technology for Hospital Software </t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>infinitynagpur@gmail.com</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Anand Pande|https://in.linkedin.com/in/anand-pande-16a1a5144</t>
+          <t>Ajay Chaudhary|https://in.linkedin.com/in/ajay-chaudhary-80623196</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/company/infosai-software-company</t>
+          <t>https://www.linkedin.com/company/infinity-healthcare-technology-solutions</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/in/anand-pande-16a1a5144</t>
+          <t>https://in.linkedin.com/in/ajay-chaudhary-80623196</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Affordable AI</t>
+          <t>Royals Webtech | Software Development, Website Developments, Mobile Application</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://affordableai.graphy.com/</t>
+          <t>https://www.royalswebtechpvtltd.com/</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>+91 85510 36126</t>
+          <t>+91 87884 47944</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>293, near Nandanvan Police Station, Nandanvan, Nagpur, Maharashtra 440024, India</t>
+          <t>4th floor, A Wing, Block No. 8, Mangalwari Complex, near Government Polytechnic, Sadar, Nagpur, Maharashtra 440001, India</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>401 Authorization Required</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>Royals Webtech: Software Company &amp; Digital Marketing in Nagpur, Mumbai India | Home</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>contact@royalswebtechpvtltd.com</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Yue (Lawrence) Xu|https://www.linkedin.com/in/yue-lawrence-xu</t>
+          <t>Er. Chetan Wanjari|https://in.linkedin.com/in/chetanwanjari</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://in.linkedin.com/company/affordable-ai-technologies</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
+          <t>https://in.linkedin.com/company/royalswebtech</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/in/reena-singh-088125184</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
